--- a/data/trans_orig/IP17-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP17-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{691A81AB-EFEC-4B2B-8089-656E54435B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7269C117-CD86-4C7C-AF39-E0A16CED554E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2AF3B618-2C42-4A83-B40E-045F9F383D3B}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{AAB728A9-BE93-44BA-A812-5A6DA3B60B65}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,132 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>77,49%</t>
   </si>
   <si>
@@ -101,9 +221,6 @@
     <t>80,6%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>22,51%</t>
   </si>
   <si>
@@ -131,64 +248,61 @@
     <t>25,98%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -248,120 +362,6 @@
     <t>23,99%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
     <t>77,61%</t>
   </si>
   <si>
@@ -413,6 +413,114 @@
     <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2012 (Tasa respuesta: 99,76%)</t>
   </si>
   <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
     <t>76,5%</t>
   </si>
   <si>
@@ -461,58 +569,58 @@
     <t>26,73%</t>
   </si>
   <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
   </si>
   <si>
     <t>79,31%</t>
@@ -569,114 +677,6 @@
     <t>26,21%</t>
   </si>
   <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
     <t>74,73%</t>
   </si>
   <si>
@@ -716,6 +716,108 @@
     <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2015 (Tasa respuesta: 99,62%)</t>
   </si>
   <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
     <t>78,57%</t>
   </si>
   <si>
@@ -770,52 +872,58 @@
     <t>26,49%</t>
   </si>
   <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
   </si>
   <si>
     <t>81,8%</t>
@@ -872,114 +980,6 @@
     <t>21,24%</t>
   </si>
   <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
     <t>82,81%</t>
   </si>
   <si>
@@ -1019,6 +1019,108 @@
     <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2023 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
     <t>80,57%</t>
   </si>
   <si>
@@ -1067,52 +1169,58 @@
     <t>21,19%</t>
   </si>
   <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
   </si>
   <si>
     <t>84,34%</t>
@@ -1161,114 +1269,6 @@
   </si>
   <si>
     <t>19,56%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
   </si>
   <si>
     <t>82,58%</t>
@@ -1702,7 +1702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6A5636-2319-4A02-AC94-5BA9B910D205}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6551953-EA38-4549-806A-D877307C7B47}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1820,10 +1820,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>250</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>164396</v>
+        <v>20520</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1835,10 +1835,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>239</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>150400</v>
+        <v>16248</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1850,10 +1850,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>489</v>
+        <v>48</v>
       </c>
       <c r="N4" s="7">
-        <v>314796</v>
+        <v>36768</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1871,10 +1871,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>47746</v>
+        <v>4924</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1886,10 +1886,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>44763</v>
+        <v>6476</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1901,10 +1901,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="N5" s="7">
-        <v>92509</v>
+        <v>11400</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1922,10 +1922,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1937,10 +1937,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1952,10 +1952,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2130,10 +2130,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="D10" s="7">
-        <v>159864</v>
+        <v>164396</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2145,10 +2145,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="I10" s="7">
-        <v>172068</v>
+        <v>150400</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2160,10 +2160,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="N10" s="7">
-        <v>331932</v>
+        <v>314796</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2181,10 +2181,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11" s="7">
-        <v>47960</v>
+        <v>47746</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2196,10 +2196,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="I11" s="7">
-        <v>37247</v>
+        <v>44763</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2211,10 +2211,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="N11" s="7">
-        <v>85207</v>
+        <v>92509</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2232,10 +2232,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2247,10 +2247,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I12" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2262,10 +2262,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="N12" s="7">
-        <v>417139</v>
+        <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2285,10 +2285,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="D13" s="7">
-        <v>20520</v>
+        <v>115654</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2300,10 +2300,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="I13" s="7">
-        <v>16248</v>
+        <v>114321</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2315,10 +2315,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>48</v>
+        <v>370</v>
       </c>
       <c r="N13" s="7">
-        <v>36768</v>
+        <v>229975</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2336,10 +2336,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D14" s="7">
-        <v>4924</v>
+        <v>34003</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2351,10 +2351,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I14" s="7">
-        <v>6476</v>
+        <v>23496</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2366,10 +2366,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="N14" s="7">
-        <v>11400</v>
+        <v>57499</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2387,10 +2387,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D15" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2402,10 +2402,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2417,10 +2417,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2440,10 +2440,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="D16" s="7">
-        <v>115654</v>
+        <v>159864</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2455,10 +2455,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="I16" s="7">
-        <v>114321</v>
+        <v>172068</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2470,10 +2470,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>370</v>
+        <v>460</v>
       </c>
       <c r="N16" s="7">
-        <v>229975</v>
+        <v>331932</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -2491,10 +2491,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D17" s="7">
-        <v>34003</v>
+        <v>47960</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -2506,10 +2506,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I17" s="7">
-        <v>23496</v>
+        <v>37247</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -2521,10 +2521,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="N17" s="7">
-        <v>57499</v>
+        <v>85207</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -2542,10 +2542,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D18" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2557,10 +2557,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2572,10 +2572,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N18" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2637,7 +2637,7 @@
         <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,7 +2685,7 @@
         <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>122</v>
@@ -2760,7 +2760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E88CBB-602F-4E0F-82F7-E33CEEE35C8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A29C087-D1DF-4BDE-9A4D-9A8A0979EDCE}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2878,10 +2878,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7">
-        <v>170717</v>
+        <v>23717</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>124</v>
@@ -2893,34 +2893,34 @@
         <v>126</v>
       </c>
       <c r="H4" s="7">
-        <v>246</v>
+        <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>158832</v>
+        <v>17451</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>127</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
-        <v>495</v>
+        <v>46</v>
       </c>
       <c r="N4" s="7">
-        <v>329549</v>
+        <v>41168</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,49 +2929,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>52445</v>
+        <v>737</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>46851</v>
+        <v>4922</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="M5" s="7">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>99296</v>
+        <v>5659</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,10 +2980,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>323</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7">
-        <v>223162</v>
+        <v>24454</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2995,10 +2995,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>318</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>205683</v>
+        <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3010,10 +3010,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>641</v>
+        <v>53</v>
       </c>
       <c r="N6" s="7">
-        <v>428845</v>
+        <v>46827</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3039,13 +3039,13 @@
         <v>97553</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H7" s="7">
         <v>125</v>
@@ -3054,13 +3054,13 @@
         <v>89606</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>264</v>
@@ -3069,13 +3069,13 @@
         <v>187159</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,13 +3090,13 @@
         <v>31676</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H8" s="7">
         <v>38</v>
@@ -3105,13 +3105,13 @@
         <v>27378</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>82</v>
@@ -3120,13 +3120,13 @@
         <v>59054</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,49 +3188,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="D10" s="7">
-        <v>165282</v>
+        <v>170717</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H10" s="7">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="I10" s="7">
-        <v>158328</v>
+        <v>158832</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
-        <v>428</v>
+        <v>495</v>
       </c>
       <c r="N10" s="7">
-        <v>323610</v>
+        <v>329549</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,40 +3239,40 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D11" s="7">
-        <v>43114</v>
+        <v>52445</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I11" s="7">
-        <v>51209</v>
+        <v>46851</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="N11" s="7">
-        <v>94323</v>
+        <v>99296</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>173</v>
@@ -3290,10 +3290,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="D12" s="7">
-        <v>208396</v>
+        <v>223162</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3305,10 +3305,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="I12" s="7">
-        <v>209537</v>
+        <v>205683</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3320,10 +3320,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>557</v>
+        <v>641</v>
       </c>
       <c r="N12" s="7">
-        <v>417933</v>
+        <v>428845</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3343,10 +3343,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>190</v>
       </c>
       <c r="D13" s="7">
-        <v>23717</v>
+        <v>123358</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>176</v>
@@ -3358,10 +3358,10 @@
         <v>178</v>
       </c>
       <c r="H13" s="7">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="I13" s="7">
-        <v>17451</v>
+        <v>122590</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>179</v>
@@ -3373,10 +3373,10 @@
         <v>181</v>
       </c>
       <c r="M13" s="7">
-        <v>46</v>
+        <v>381</v>
       </c>
       <c r="N13" s="7">
-        <v>41168</v>
+        <v>245948</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>182</v>
@@ -3394,10 +3394,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D14" s="7">
-        <v>737</v>
+        <v>42609</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>185</v>
@@ -3409,10 +3409,10 @@
         <v>187</v>
       </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="I14" s="7">
-        <v>4922</v>
+        <v>32786</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>188</v>
@@ -3424,10 +3424,10 @@
         <v>190</v>
       </c>
       <c r="M14" s="7">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="N14" s="7">
-        <v>5659</v>
+        <v>75395</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>191</v>
@@ -3445,10 +3445,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>27</v>
+        <v>255</v>
       </c>
       <c r="D15" s="7">
-        <v>24454</v>
+        <v>165967</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3460,10 +3460,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="I15" s="7">
-        <v>22373</v>
+        <v>155376</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3475,10 +3475,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>53</v>
+        <v>497</v>
       </c>
       <c r="N15" s="7">
-        <v>46827</v>
+        <v>321343</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3498,10 +3498,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="D16" s="7">
-        <v>123358</v>
+        <v>165282</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>194</v>
@@ -3513,10 +3513,10 @@
         <v>196</v>
       </c>
       <c r="H16" s="7">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="I16" s="7">
-        <v>122590</v>
+        <v>158328</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>197</v>
@@ -3528,10 +3528,10 @@
         <v>199</v>
       </c>
       <c r="M16" s="7">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="N16" s="7">
-        <v>245948</v>
+        <v>323610</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>200</v>
@@ -3549,10 +3549,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D17" s="7">
-        <v>42609</v>
+        <v>43114</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>203</v>
@@ -3564,10 +3564,10 @@
         <v>205</v>
       </c>
       <c r="H17" s="7">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="I17" s="7">
-        <v>32786</v>
+        <v>51209</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>206</v>
@@ -3579,10 +3579,10 @@
         <v>208</v>
       </c>
       <c r="M17" s="7">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="N17" s="7">
-        <v>75395</v>
+        <v>94323</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>209</v>
@@ -3600,10 +3600,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="D18" s="7">
-        <v>165967</v>
+        <v>208396</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3615,10 +3615,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>155376</v>
+        <v>209537</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3630,10 +3630,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>497</v>
+        <v>557</v>
       </c>
       <c r="N18" s="7">
-        <v>321343</v>
+        <v>417933</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3659,7 +3659,7 @@
         <v>580628</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>212</v>
@@ -3710,7 +3710,7 @@
         <v>170581</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>218</v>
@@ -3818,7 +3818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F76FA4F-56A5-4296-905C-0F0D3BFC53DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAA5454-BC59-4553-8623-08489A1D85A8}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3936,10 +3936,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7">
-        <v>175702</v>
+        <v>20213</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>225</v>
@@ -3951,10 +3951,10 @@
         <v>227</v>
       </c>
       <c r="H4" s="7">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>154307</v>
+        <v>18839</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>228</v>
@@ -3966,10 +3966,10 @@
         <v>230</v>
       </c>
       <c r="M4" s="7">
-        <v>506</v>
+        <v>44</v>
       </c>
       <c r="N4" s="7">
-        <v>330009</v>
+        <v>39052</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>231</v>
@@ -3987,10 +3987,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>47923</v>
+        <v>5361</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>234</v>
@@ -4002,10 +4002,10 @@
         <v>236</v>
       </c>
       <c r="H5" s="7">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>52244</v>
+        <v>3688</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>237</v>
@@ -4017,10 +4017,10 @@
         <v>239</v>
       </c>
       <c r="M5" s="7">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>100167</v>
+        <v>9049</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>240</v>
@@ -4038,10 +4038,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>331</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>223625</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4053,10 +4053,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>333</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>206551</v>
+        <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4068,10 +4068,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>664</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>430176</v>
+        <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4246,10 +4246,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="D10" s="7">
-        <v>166595</v>
+        <v>175702</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>259</v>
@@ -4261,10 +4261,10 @@
         <v>261</v>
       </c>
       <c r="H10" s="7">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="I10" s="7">
-        <v>170279</v>
+        <v>154307</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>262</v>
@@ -4276,10 +4276,10 @@
         <v>264</v>
       </c>
       <c r="M10" s="7">
-        <v>464</v>
+        <v>506</v>
       </c>
       <c r="N10" s="7">
-        <v>336874</v>
+        <v>330009</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>265</v>
@@ -4297,10 +4297,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D11" s="7">
-        <v>37060</v>
+        <v>47923</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>268</v>
@@ -4312,10 +4312,10 @@
         <v>270</v>
       </c>
       <c r="H11" s="7">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="I11" s="7">
-        <v>37141</v>
+        <v>52244</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>271</v>
@@ -4327,10 +4327,10 @@
         <v>273</v>
       </c>
       <c r="M11" s="7">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="N11" s="7">
-        <v>74201</v>
+        <v>100167</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>274</v>
@@ -4348,10 +4348,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="D12" s="7">
-        <v>203655</v>
+        <v>223625</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4363,10 +4363,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>333</v>
       </c>
       <c r="I12" s="7">
-        <v>207420</v>
+        <v>206551</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4378,10 +4378,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>568</v>
+        <v>664</v>
       </c>
       <c r="N12" s="7">
-        <v>411075</v>
+        <v>430176</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4401,10 +4401,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="D13" s="7">
-        <v>20213</v>
+        <v>135110</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>277</v>
@@ -4416,10 +4416,10 @@
         <v>279</v>
       </c>
       <c r="H13" s="7">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="I13" s="7">
-        <v>18839</v>
+        <v>125423</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>280</v>
@@ -4431,10 +4431,10 @@
         <v>282</v>
       </c>
       <c r="M13" s="7">
-        <v>44</v>
+        <v>405</v>
       </c>
       <c r="N13" s="7">
-        <v>39052</v>
+        <v>260533</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>283</v>
@@ -4452,10 +4452,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D14" s="7">
-        <v>5361</v>
+        <v>30391</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>286</v>
@@ -4467,10 +4467,10 @@
         <v>288</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="I14" s="7">
-        <v>3688</v>
+        <v>30574</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>289</v>
@@ -4482,10 +4482,10 @@
         <v>291</v>
       </c>
       <c r="M14" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N14" s="7">
-        <v>9049</v>
+        <v>60965</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>292</v>
@@ -4503,10 +4503,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>246</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>165501</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4518,10 +4518,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I15" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4533,10 +4533,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>505</v>
       </c>
       <c r="N15" s="7">
-        <v>48101</v>
+        <v>321498</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4556,10 +4556,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="D16" s="7">
-        <v>135110</v>
+        <v>166595</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>295</v>
@@ -4571,10 +4571,10 @@
         <v>297</v>
       </c>
       <c r="H16" s="7">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="I16" s="7">
-        <v>125423</v>
+        <v>170279</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>298</v>
@@ -4586,10 +4586,10 @@
         <v>300</v>
       </c>
       <c r="M16" s="7">
-        <v>405</v>
+        <v>464</v>
       </c>
       <c r="N16" s="7">
-        <v>260533</v>
+        <v>336874</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>301</v>
@@ -4607,10 +4607,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D17" s="7">
-        <v>30391</v>
+        <v>37060</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>304</v>
@@ -4622,10 +4622,10 @@
         <v>306</v>
       </c>
       <c r="H17" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="7">
-        <v>30574</v>
+        <v>37141</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>307</v>
@@ -4637,10 +4637,10 @@
         <v>309</v>
       </c>
       <c r="M17" s="7">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="N17" s="7">
-        <v>60965</v>
+        <v>74201</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>310</v>
@@ -4658,10 +4658,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="D18" s="7">
-        <v>165501</v>
+        <v>203655</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4673,10 +4673,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I18" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4688,10 +4688,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>505</v>
+        <v>568</v>
       </c>
       <c r="N18" s="7">
-        <v>321498</v>
+        <v>411075</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4717,7 +4717,7 @@
         <v>594738</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>111</v>
@@ -4768,7 +4768,7 @@
         <v>146119</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>319</v>
@@ -4876,7 +4876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF559BD-9A18-4E28-A048-B6FDCF4C1D23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D9704B-1209-4412-85F5-0F6A334C5B03}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4994,10 +4994,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>269</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>201568</v>
+        <v>8028</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>326</v>
@@ -5009,34 +5009,34 @@
         <v>328</v>
       </c>
       <c r="H4" s="7">
-        <v>234</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>163257</v>
+        <v>12224</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>329</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>213</v>
+        <v>330</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M4" s="7">
-        <v>503</v>
+        <v>34</v>
       </c>
       <c r="N4" s="7">
-        <v>364825</v>
+        <v>20252</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,49 +5045,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>48618</v>
+        <v>4670</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H5" s="7">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>29095</v>
+        <v>4563</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>218</v>
+        <v>340</v>
       </c>
       <c r="M5" s="7">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="N5" s="7">
-        <v>77713</v>
+        <v>9233</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,10 +5096,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>250186</v>
+        <v>12698</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5111,10 +5111,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>192352</v>
+        <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5126,10 +5126,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>623</v>
+        <v>47</v>
       </c>
       <c r="N6" s="7">
-        <v>442538</v>
+        <v>29485</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5155,13 +5155,13 @@
         <v>98711</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H7" s="7">
         <v>147</v>
@@ -5170,13 +5170,13 @@
         <v>91558</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M7" s="7">
         <v>272</v>
@@ -5185,13 +5185,13 @@
         <v>190269</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,13 +5206,13 @@
         <v>15885</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H8" s="7">
         <v>21</v>
@@ -5221,13 +5221,13 @@
         <v>12337</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M8" s="7">
         <v>48</v>
@@ -5236,13 +5236,13 @@
         <v>28221</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,49 +5304,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>197</v>
+        <v>269</v>
       </c>
       <c r="D10" s="7">
-        <v>147615</v>
+        <v>201568</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H10" s="7">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="I10" s="7">
-        <v>143336</v>
+        <v>163257</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>213</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M10" s="7">
-        <v>395</v>
+        <v>503</v>
       </c>
       <c r="N10" s="7">
-        <v>290950</v>
+        <v>364825</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>365</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,49 +5355,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="D11" s="7">
-        <v>27401</v>
+        <v>48618</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H11" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I11" s="7">
-        <v>28607</v>
+        <v>29095</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>371</v>
+        <v>218</v>
       </c>
       <c r="M11" s="7">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="N11" s="7">
-        <v>56008</v>
+        <v>77713</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>373</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,10 +5406,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="D12" s="7">
-        <v>175016</v>
+        <v>250186</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5421,10 +5421,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="I12" s="7">
-        <v>171943</v>
+        <v>192352</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5436,10 +5436,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>478</v>
+        <v>623</v>
       </c>
       <c r="N12" s="7">
-        <v>346958</v>
+        <v>442538</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5459,49 +5459,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="D13" s="7">
-        <v>8028</v>
+        <v>143356</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H13" s="7">
+        <v>189</v>
+      </c>
+      <c r="I13" s="7">
+        <v>142581</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="M13" s="7">
         <v>374</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="H13" s="7">
-        <v>21</v>
-      </c>
-      <c r="I13" s="7">
-        <v>12224</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="M13" s="7">
-        <v>34</v>
-      </c>
       <c r="N13" s="7">
-        <v>20252</v>
+        <v>285937</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,49 +5510,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D14" s="7">
-        <v>4670</v>
+        <v>29852</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H14" s="7">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="I14" s="7">
-        <v>4563</v>
+        <v>25321</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M14" s="7">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="N14" s="7">
-        <v>9233</v>
+        <v>55173</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,10 +5561,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="D15" s="7">
-        <v>12698</v>
+        <v>173208</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5576,10 +5576,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="I15" s="7">
-        <v>16787</v>
+        <v>167902</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5591,10 +5591,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>47</v>
+        <v>451</v>
       </c>
       <c r="N15" s="7">
-        <v>29485</v>
+        <v>341110</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5614,49 +5614,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="D16" s="7">
-        <v>143356</v>
+        <v>147615</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H16" s="7">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I16" s="7">
-        <v>142581</v>
+        <v>143336</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="M16" s="7">
         <v>395</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="M16" s="7">
-        <v>374</v>
-      </c>
       <c r="N16" s="7">
-        <v>285937</v>
+        <v>290950</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>398</v>
+        <v>181</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,43 +5665,43 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" s="7">
-        <v>29852</v>
+        <v>27401</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H17" s="7">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I17" s="7">
-        <v>25321</v>
+        <v>28607</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M17" s="7">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="N17" s="7">
-        <v>55173</v>
+        <v>56008</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>407</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>408</v>
@@ -5716,10 +5716,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D18" s="7">
-        <v>173208</v>
+        <v>175016</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5731,10 +5731,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="I18" s="7">
-        <v>167902</v>
+        <v>171943</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5746,10 +5746,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="N18" s="7">
-        <v>341110</v>
+        <v>346958</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5808,7 +5808,7 @@
         <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>416</v>
@@ -5862,7 +5862,7 @@
         <v>423</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP17-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP17-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7269C117-CD86-4C7C-AF39-E0A16CED554E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4606C4BB-6389-40FD-8CE5-BCA5B4869367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{AAB728A9-BE93-44BA-A812-5A6DA3B60B65}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C06DFDF4-9DC3-4F58-A161-069C4CEAEF13}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="431">
   <si>
     <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,64 +71,64 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>80,65%</t>
   </si>
   <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
   </si>
   <si>
     <t>71,5%</t>
   </si>
   <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
   </si>
   <si>
     <t>76,33%</t>
   </si>
   <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1180 +137,1201 @@
     <t>2/10</t>
   </si>
   <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
     <t>78,69%</t>
   </si>
   <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
   </si>
   <si>
     <t>81,38%</t>
   </si>
   <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
   </si>
   <si>
     <t>79,97%</t>
   </si>
   <si>
-    <t>75,4%</t>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2015 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
   </si>
   <si>
     <t>83,58%</t>
   </si>
   <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2015 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
+    <t>81,76%</t>
   </si>
   <si>
     <t>85,22%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1342,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1417,39 +1438,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1501,7 +1522,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1612,13 +1633,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1627,6 +1641,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1691,19 +1712,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6551953-EA38-4549-806A-D877307C7B47}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41174F89-A7CC-47AB-9806-E8B7E78219F3}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1820,10 +1861,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>20520</v>
+        <v>4924</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1835,10 +1876,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>16248</v>
+        <v>6476</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1850,10 +1891,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="N4" s="7">
-        <v>36768</v>
+        <v>11400</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1871,10 +1912,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>4924</v>
+        <v>20520</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1886,10 +1927,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I5" s="7">
-        <v>6476</v>
+        <v>16248</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1901,10 +1942,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="N5" s="7">
-        <v>11400</v>
+        <v>36768</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1975,10 +2016,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="D7" s="7">
-        <v>100430</v>
+        <v>27203</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1990,10 +2031,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="I7" s="7">
-        <v>94397</v>
+        <v>21605</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2005,10 +2046,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>294</v>
+        <v>73</v>
       </c>
       <c r="N7" s="7">
-        <v>194827</v>
+        <v>48808</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2026,10 +2067,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="D8" s="7">
-        <v>27203</v>
+        <v>100430</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2041,10 +2082,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="I8" s="7">
-        <v>21605</v>
+        <v>94397</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2056,10 +2097,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>73</v>
+        <v>294</v>
       </c>
       <c r="N8" s="7">
-        <v>48808</v>
+        <v>194827</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2130,10 +2171,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>250</v>
+        <v>72</v>
       </c>
       <c r="D10" s="7">
-        <v>164396</v>
+        <v>47746</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2145,10 +2186,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>239</v>
+        <v>73</v>
       </c>
       <c r="I10" s="7">
-        <v>150400</v>
+        <v>44763</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2160,10 +2201,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>489</v>
+        <v>145</v>
       </c>
       <c r="N10" s="7">
-        <v>314796</v>
+        <v>92509</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2181,10 +2222,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>72</v>
+        <v>250</v>
       </c>
       <c r="D11" s="7">
-        <v>47746</v>
+        <v>164396</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2196,10 +2237,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>73</v>
+        <v>239</v>
       </c>
       <c r="I11" s="7">
-        <v>44763</v>
+        <v>150400</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2211,10 +2252,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>145</v>
+        <v>489</v>
       </c>
       <c r="N11" s="7">
-        <v>92509</v>
+        <v>314796</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2285,10 +2326,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="D13" s="7">
-        <v>115654</v>
+        <v>34003</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2300,10 +2341,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>190</v>
+        <v>39</v>
       </c>
       <c r="I13" s="7">
-        <v>114321</v>
+        <v>23496</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2315,10 +2356,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>370</v>
+        <v>91</v>
       </c>
       <c r="N13" s="7">
-        <v>229975</v>
+        <v>57499</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2336,10 +2377,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="D14" s="7">
-        <v>34003</v>
+        <v>115654</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2351,10 +2392,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>39</v>
+        <v>190</v>
       </c>
       <c r="I14" s="7">
-        <v>23496</v>
+        <v>114321</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2366,10 +2407,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>91</v>
+        <v>370</v>
       </c>
       <c r="N14" s="7">
-        <v>57499</v>
+        <v>229975</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2440,10 +2481,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>235</v>
+        <v>71</v>
       </c>
       <c r="D16" s="7">
-        <v>159864</v>
+        <v>47960</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2455,10 +2496,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>225</v>
+        <v>49</v>
       </c>
       <c r="I16" s="7">
-        <v>172068</v>
+        <v>37247</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2470,10 +2511,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>460</v>
+        <v>120</v>
       </c>
       <c r="N16" s="7">
-        <v>331932</v>
+        <v>85207</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -2491,10 +2532,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="D17" s="7">
-        <v>47960</v>
+        <v>159864</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -2506,10 +2547,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>49</v>
+        <v>225</v>
       </c>
       <c r="I17" s="7">
-        <v>37247</v>
+        <v>172068</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -2521,10 +2562,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>120</v>
+        <v>460</v>
       </c>
       <c r="N17" s="7">
-        <v>85207</v>
+        <v>331932</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -2595,49 +2636,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>844</v>
+        <v>242</v>
       </c>
       <c r="D19" s="7">
-        <v>560864</v>
+        <v>161836</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>201</v>
+      </c>
+      <c r="I19" s="7">
+        <v>133587</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H19" s="7">
-        <v>817</v>
-      </c>
-      <c r="I19" s="7">
-        <v>547434</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>443</v>
+      </c>
+      <c r="N19" s="7">
+        <v>295424</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M19" s="7">
-        <v>1661</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1108297</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,10 +2687,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>242</v>
+        <v>844</v>
       </c>
       <c r="D20" s="7">
-        <v>161836</v>
+        <v>560864</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>115</v>
@@ -2658,34 +2699,34 @@
         <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="7">
+        <v>817</v>
+      </c>
+      <c r="I20" s="7">
+        <v>547434</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H20" s="7">
-        <v>201</v>
-      </c>
-      <c r="I20" s="7">
-        <v>133587</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1661</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1108297</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="M20" s="7">
-        <v>443</v>
-      </c>
-      <c r="N20" s="7">
-        <v>295424</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>122</v>
@@ -2740,6 +2781,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2760,8 +2806,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A29C087-D1DF-4BDE-9A4D-9A8A0979EDCE}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AD6FDB-1F6F-4DD4-B0E8-9B723E141D99}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2777,7 +2823,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2878,49 +2924,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>23717</v>
+        <v>737</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>17451</v>
+        <v>4922</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>41168</v>
+        <v>5659</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,49 +2975,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7">
-        <v>737</v>
+        <v>23717</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I5" s="7">
-        <v>4922</v>
+        <v>17451</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="N5" s="7">
-        <v>5659</v>
+        <v>41168</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,49 +3079,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="D7" s="7">
-        <v>97553</v>
+        <v>31676</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="I7" s="7">
-        <v>89606</v>
+        <v>27378</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
-        <v>264</v>
+        <v>82</v>
       </c>
       <c r="N7" s="7">
-        <v>187159</v>
+        <v>59054</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,49 +3130,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="D8" s="7">
-        <v>31676</v>
+        <v>97553</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="I8" s="7">
-        <v>27378</v>
+        <v>89606</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
-        <v>82</v>
+        <v>264</v>
       </c>
       <c r="N8" s="7">
-        <v>59054</v>
+        <v>187159</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,49 +3234,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>249</v>
+        <v>74</v>
       </c>
       <c r="D10" s="7">
-        <v>170717</v>
+        <v>52445</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
-        <v>246</v>
+        <v>72</v>
       </c>
       <c r="I10" s="7">
-        <v>158832</v>
+        <v>46851</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
-        <v>495</v>
+        <v>146</v>
       </c>
       <c r="N10" s="7">
-        <v>329549</v>
+        <v>99296</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,49 +3285,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>74</v>
+        <v>249</v>
       </c>
       <c r="D11" s="7">
-        <v>52445</v>
+        <v>170717</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H11" s="7">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="I11" s="7">
-        <v>46851</v>
+        <v>158832</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
-        <v>146</v>
+        <v>495</v>
       </c>
       <c r="N11" s="7">
-        <v>99296</v>
+        <v>329549</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,49 +3389,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="D13" s="7">
-        <v>123358</v>
+        <v>42609</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="I13" s="7">
-        <v>122590</v>
+        <v>32786</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
-        <v>381</v>
+        <v>116</v>
       </c>
       <c r="N13" s="7">
-        <v>245948</v>
+        <v>75395</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,49 +3440,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="D14" s="7">
-        <v>42609</v>
+        <v>123358</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
-        <v>51</v>
+        <v>191</v>
       </c>
       <c r="I14" s="7">
-        <v>32786</v>
+        <v>122590</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
-        <v>116</v>
+        <v>381</v>
       </c>
       <c r="N14" s="7">
-        <v>75395</v>
+        <v>245948</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,49 +3544,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="D16" s="7">
-        <v>165282</v>
+        <v>43114</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
-        <v>206</v>
+        <v>68</v>
       </c>
       <c r="I16" s="7">
-        <v>158328</v>
+        <v>51209</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
-        <v>428</v>
+        <v>129</v>
       </c>
       <c r="N16" s="7">
-        <v>323610</v>
+        <v>94323</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,49 +3595,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>61</v>
+        <v>222</v>
       </c>
       <c r="D17" s="7">
-        <v>43114</v>
+        <v>165282</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
-        <v>68</v>
+        <v>206</v>
       </c>
       <c r="I17" s="7">
-        <v>51209</v>
+        <v>158328</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
-        <v>129</v>
+        <v>428</v>
       </c>
       <c r="N17" s="7">
-        <v>94323</v>
+        <v>323610</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,49 +3699,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>826</v>
+        <v>245</v>
       </c>
       <c r="D19" s="7">
-        <v>580628</v>
+        <v>170581</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>57</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H19" s="7">
-        <v>788</v>
+        <v>235</v>
       </c>
       <c r="I19" s="7">
-        <v>546808</v>
+        <v>163145</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M19" s="7">
-        <v>1614</v>
+        <v>480</v>
       </c>
       <c r="N19" s="7">
-        <v>1127436</v>
+        <v>333726</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>220</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,49 +3750,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>245</v>
+        <v>826</v>
       </c>
       <c r="D20" s="7">
-        <v>170581</v>
+        <v>580628</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
-        <v>235</v>
+        <v>788</v>
       </c>
       <c r="I20" s="7">
-        <v>163145</v>
+        <v>546808</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
-        <v>480</v>
+        <v>1614</v>
       </c>
       <c r="N20" s="7">
-        <v>333726</v>
+        <v>1127436</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,6 +3844,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3818,8 +3869,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAA5454-BC59-4553-8623-08489A1D85A8}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0CD7D7-6E56-47DC-8DB2-2C8E0A16C09D}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3835,7 +3886,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3936,49 +3987,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>20213</v>
+        <v>5361</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>18839</v>
+        <v>3688</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>39052</v>
+        <v>9049</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,49 +4038,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7">
-        <v>5361</v>
+        <v>20213</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I5" s="7">
-        <v>3688</v>
+        <v>18839</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="N5" s="7">
-        <v>9049</v>
+        <v>39052</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,49 +4142,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="D7" s="7">
-        <v>97118</v>
+        <v>25384</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="I7" s="7">
-        <v>90335</v>
+        <v>20240</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
-        <v>262</v>
+        <v>65</v>
       </c>
       <c r="N7" s="7">
-        <v>187454</v>
+        <v>45623</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,49 +4193,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="D8" s="7">
-        <v>25384</v>
+        <v>97118</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="I8" s="7">
-        <v>20240</v>
+        <v>90335</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
-        <v>65</v>
+        <v>262</v>
       </c>
       <c r="N8" s="7">
-        <v>45623</v>
+        <v>187454</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>258</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,49 +4297,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>259</v>
+        <v>72</v>
       </c>
       <c r="D10" s="7">
-        <v>175702</v>
+        <v>47923</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
-        <v>247</v>
+        <v>86</v>
       </c>
       <c r="I10" s="7">
-        <v>154307</v>
+        <v>52244</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
-        <v>506</v>
+        <v>158</v>
       </c>
       <c r="N10" s="7">
-        <v>330009</v>
+        <v>100167</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,49 +4348,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>72</v>
+        <v>259</v>
       </c>
       <c r="D11" s="7">
-        <v>47923</v>
+        <v>175702</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="H11" s="7">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="I11" s="7">
-        <v>52244</v>
+        <v>154307</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
-        <v>158</v>
+        <v>506</v>
       </c>
       <c r="N11" s="7">
-        <v>100167</v>
+        <v>330009</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,49 +4452,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>198</v>
+        <v>48</v>
       </c>
       <c r="D13" s="7">
-        <v>135110</v>
+        <v>30391</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="H13" s="7">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="I13" s="7">
-        <v>125423</v>
+        <v>30574</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
-        <v>405</v>
+        <v>100</v>
       </c>
       <c r="N13" s="7">
-        <v>260533</v>
+        <v>60965</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,49 +4503,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>48</v>
+        <v>198</v>
       </c>
       <c r="D14" s="7">
-        <v>30391</v>
+        <v>135110</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>27</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
-        <v>52</v>
+        <v>207</v>
       </c>
       <c r="I14" s="7">
-        <v>30574</v>
+        <v>125423</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
-        <v>100</v>
+        <v>405</v>
       </c>
       <c r="N14" s="7">
-        <v>60965</v>
+        <v>260533</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,49 +4607,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>234</v>
+        <v>53</v>
       </c>
       <c r="D16" s="7">
-        <v>166595</v>
+        <v>37060</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H16" s="7">
-        <v>230</v>
+        <v>51</v>
       </c>
       <c r="I16" s="7">
-        <v>170279</v>
+        <v>37141</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="M16" s="7">
-        <v>464</v>
+        <v>104</v>
       </c>
       <c r="N16" s="7">
-        <v>336874</v>
+        <v>74201</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>301</v>
+        <v>52</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,49 +4658,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>53</v>
+        <v>234</v>
       </c>
       <c r="D17" s="7">
-        <v>37060</v>
+        <v>166595</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H17" s="7">
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="I17" s="7">
-        <v>37141</v>
+        <v>170279</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M17" s="7">
-        <v>104</v>
+        <v>464</v>
       </c>
       <c r="N17" s="7">
-        <v>74201</v>
+        <v>336874</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>310</v>
+        <v>62</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,49 +4762,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>845</v>
+        <v>214</v>
       </c>
       <c r="D19" s="7">
-        <v>594738</v>
+        <v>146119</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>150</v>
+        <v>314</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>111</v>
+        <v>315</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H19" s="7">
-        <v>836</v>
+        <v>223</v>
       </c>
       <c r="I19" s="7">
-        <v>559184</v>
+        <v>143886</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>214</v>
+        <v>318</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M19" s="7">
-        <v>1681</v>
+        <v>437</v>
       </c>
       <c r="N19" s="7">
-        <v>1153922</v>
+        <v>290005</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>317</v>
+        <v>253</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,49 +4813,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>214</v>
+        <v>845</v>
       </c>
       <c r="D20" s="7">
-        <v>146119</v>
+        <v>594738</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>158</v>
+        <v>322</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>120</v>
+        <v>324</v>
       </c>
       <c r="H20" s="7">
-        <v>223</v>
+        <v>836</v>
       </c>
       <c r="I20" s="7">
-        <v>143886</v>
+        <v>559184</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>220</v>
+        <v>327</v>
       </c>
       <c r="M20" s="7">
-        <v>437</v>
+        <v>1681</v>
       </c>
       <c r="N20" s="7">
-        <v>290005</v>
+        <v>1153922</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>324</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,6 +4907,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4876,8 +4932,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D9704B-1209-4412-85F5-0F6A334C5B03}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F8E064-64F5-450F-A58F-999C628C6CD7}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4893,7 +4949,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4994,49 +5050,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4670</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H4" s="7">
+        <v>7</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4563</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="M4" s="7">
         <v>13</v>
       </c>
-      <c r="D4" s="7">
-        <v>8028</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H4" s="7">
-        <v>21</v>
-      </c>
-      <c r="I4" s="7">
-        <v>12224</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="M4" s="7">
-        <v>34</v>
-      </c>
       <c r="N4" s="7">
-        <v>20252</v>
+        <v>9233</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,49 +5101,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D5" s="7">
-        <v>4670</v>
+        <v>8028</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I5" s="7">
-        <v>4563</v>
+        <v>12224</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="M5" s="7">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="N5" s="7">
-        <v>9233</v>
+        <v>20252</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,49 +5205,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="D7" s="7">
-        <v>98711</v>
+        <v>15885</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="H7" s="7">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="I7" s="7">
-        <v>91558</v>
+        <v>12337</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="M7" s="7">
-        <v>272</v>
+        <v>48</v>
       </c>
       <c r="N7" s="7">
-        <v>190269</v>
+        <v>28221</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,49 +5256,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="D8" s="7">
-        <v>15885</v>
+        <v>98711</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H8" s="7">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="I8" s="7">
-        <v>12337</v>
+        <v>91558</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="M8" s="7">
-        <v>48</v>
+        <v>272</v>
       </c>
       <c r="N8" s="7">
-        <v>28221</v>
+        <v>190269</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>22</v>
+        <v>365</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,49 +5360,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>269</v>
+        <v>74</v>
       </c>
       <c r="D10" s="7">
-        <v>201568</v>
+        <v>48618</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="H10" s="7">
-        <v>234</v>
+        <v>46</v>
       </c>
       <c r="I10" s="7">
-        <v>163257</v>
+        <v>29095</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>213</v>
+        <v>371</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="M10" s="7">
-        <v>503</v>
+        <v>120</v>
       </c>
       <c r="N10" s="7">
-        <v>364825</v>
+        <v>77713</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,49 +5411,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c r="D11" s="7">
-        <v>48618</v>
+        <v>201568</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="H11" s="7">
-        <v>46</v>
+        <v>234</v>
       </c>
       <c r="I11" s="7">
-        <v>29095</v>
+        <v>163257</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>218</v>
+        <v>380</v>
       </c>
       <c r="M11" s="7">
-        <v>120</v>
+        <v>503</v>
       </c>
       <c r="N11" s="7">
-        <v>77713</v>
+        <v>364825</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,49 +5515,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="D13" s="7">
-        <v>143356</v>
+        <v>29852</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="H13" s="7">
-        <v>189</v>
+        <v>37</v>
       </c>
       <c r="I13" s="7">
-        <v>142581</v>
+        <v>25321</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>381</v>
+        <v>95</v>
       </c>
       <c r="M13" s="7">
-        <v>374</v>
+        <v>77</v>
       </c>
       <c r="N13" s="7">
-        <v>285937</v>
+        <v>55173</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>384</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,49 +5566,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="D14" s="7">
-        <v>29852</v>
+        <v>143356</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="H14" s="7">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c r="I14" s="7">
-        <v>25321</v>
+        <v>142581</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>389</v>
+        <v>104</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="M14" s="7">
-        <v>77</v>
+        <v>374</v>
       </c>
       <c r="N14" s="7">
-        <v>55173</v>
+        <v>285937</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>392</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,49 +5670,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>197</v>
+        <v>41</v>
       </c>
       <c r="D16" s="7">
-        <v>147615</v>
+        <v>27401</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>396</v>
+        <v>270</v>
       </c>
       <c r="H16" s="7">
-        <v>198</v>
+        <v>42</v>
       </c>
       <c r="I16" s="7">
-        <v>143336</v>
+        <v>28607</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M16" s="7">
-        <v>395</v>
+        <v>83</v>
       </c>
       <c r="N16" s="7">
-        <v>290950</v>
+        <v>56008</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>181</v>
+        <v>402</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,49 +5721,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="D17" s="7">
-        <v>27401</v>
+        <v>147615</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>403</v>
+        <v>279</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H17" s="7">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="I17" s="7">
-        <v>28607</v>
+        <v>143336</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="M17" s="7">
-        <v>83</v>
+        <v>395</v>
       </c>
       <c r="N17" s="7">
-        <v>56008</v>
+        <v>290950</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>189</v>
+        <v>410</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,49 +5825,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>789</v>
+        <v>188</v>
       </c>
       <c r="D19" s="7">
-        <v>599278</v>
+        <v>126426</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="H19" s="7">
-        <v>789</v>
+        <v>153</v>
       </c>
       <c r="I19" s="7">
-        <v>552956</v>
+        <v>99923</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="M19" s="7">
-        <v>1578</v>
+        <v>341</v>
       </c>
       <c r="N19" s="7">
-        <v>1152235</v>
+        <v>226348</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>419</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>53</v>
+        <v>420</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,49 +5876,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>188</v>
+        <v>789</v>
       </c>
       <c r="D20" s="7">
-        <v>126426</v>
+        <v>599278</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="H20" s="7">
-        <v>153</v>
+        <v>789</v>
       </c>
       <c r="I20" s="7">
-        <v>99923</v>
+        <v>552956</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="M20" s="7">
-        <v>341</v>
+        <v>1578</v>
       </c>
       <c r="N20" s="7">
-        <v>226348</v>
+        <v>1152235</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>48</v>
+        <v>428</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>61</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5914,6 +5970,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP17-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP17-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4606C4BB-6389-40FD-8CE5-BCA5B4869367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53135AED-D729-484F-B491-98A4412620A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C06DFDF4-9DC3-4F58-A161-069C4CEAEF13}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A988991D-70FD-439F-B8AD-66F5FA48DFA5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="433">
   <si>
     <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,10 +77,10 @@
     <t>19,35%</t>
   </si>
   <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
   </si>
   <si>
     <t>28,5%</t>
@@ -89,16 +89,16 @@
     <t>14,06%</t>
   </si>
   <si>
-    <t>48,36%</t>
+    <t>46,24%</t>
   </si>
   <si>
     <t>23,67%</t>
   </si>
   <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,16 +107,16 @@
     <t>80,65%</t>
   </si>
   <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
   </si>
   <si>
     <t>71,5%</t>
   </si>
   <si>
-    <t>51,64%</t>
+    <t>53,76%</t>
   </si>
   <si>
     <t>85,94%</t>
@@ -125,1177 +125,1183 @@
     <t>76,33%</t>
   </si>
   <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>21,31%</t>
   </si>
   <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
   </si>
   <si>
     <t>18,62%</t>
   </si>
   <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
   </si>
   <si>
     <t>20,03%</t>
   </si>
   <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
   </si>
   <si>
     <t>78,69%</t>
   </si>
   <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
   </si>
   <si>
     <t>81,38%</t>
   </si>
   <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
   </si>
   <si>
     <t>79,97%</t>
   </si>
   <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>22,51%</t>
   </si>
   <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2016 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
     <t>18,05%</t>
   </si>
   <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
   </si>
   <si>
     <t>81,95%</t>
   </si>
   <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
   </si>
   <si>
     <t>20,23%</t>
   </si>
   <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
   </si>
   <si>
     <t>79,77%</t>
   </si>
   <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2015 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
+    <t>87,27%</t>
   </si>
   <si>
     <t>15,66%</t>
   </si>
   <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
   </si>
   <si>
     <t>16,14%</t>
   </si>
   <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
+    <t>13,08%</t>
   </si>
   <si>
     <t>84,34%</t>
   </si>
   <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
   </si>
   <si>
     <t>83,86%</t>
   </si>
   <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
+    <t>86,92%</t>
   </si>
   <si>
     <t>17,42%</t>
   </si>
   <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
   </si>
   <si>
     <t>15,3%</t>
   </si>
   <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
   </si>
   <si>
     <t>16,42%</t>
@@ -1304,31 +1310,31 @@
     <t>14,78%</t>
   </si>
   <si>
-    <t>18,24%</t>
+    <t>18,12%</t>
   </si>
   <si>
     <t>82,58%</t>
   </si>
   <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
   </si>
   <si>
     <t>84,7%</t>
   </si>
   <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
   </si>
   <si>
     <t>83,58%</t>
   </si>
   <si>
-    <t>81,76%</t>
+    <t>81,88%</t>
   </si>
   <si>
     <t>85,22%</t>
@@ -1743,7 +1749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41174F89-A7CC-47AB-9806-E8B7E78219F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D93CD31-A3A3-4FCA-8A0F-036CE5BAACBF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2645,10 +2651,10 @@
         <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>201</v>
@@ -2657,13 +2663,13 @@
         <v>133587</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>443</v>
@@ -2672,13 +2678,13 @@
         <v>295424</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2699,13 @@
         <v>560864</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>817</v>
@@ -2708,13 +2714,13 @@
         <v>547434</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>1661</v>
@@ -2723,13 +2729,13 @@
         <v>1108297</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2785,7 +2791,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2806,7 +2812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AD6FDB-1F6F-4DD4-B0E8-9B723E141D99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93AC588A-5A03-4994-9D23-9CDE1E99744B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2823,7 +2829,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2930,13 +2936,13 @@
         <v>737</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -2945,13 +2951,13 @@
         <v>4922</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -2960,13 +2966,13 @@
         <v>5659</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +2987,13 @@
         <v>23717</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -2996,13 +3002,13 @@
         <v>17451</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M5" s="7">
         <v>46</v>
@@ -3011,10 +3017,10 @@
         <v>41168</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>142</v>
@@ -3848,7 +3854,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3869,7 +3875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0CD7D7-6E56-47DC-8DB2-2C8E0A16C09D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A6CFB9-BB73-49FF-90CD-11D79881BAC6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4029,7 +4035,7 @@
         <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4050,13 @@
         <v>20213</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -4059,13 +4065,13 @@
         <v>18839</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -4074,13 +4080,13 @@
         <v>39052</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4154,13 @@
         <v>25384</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -4163,13 +4169,13 @@
         <v>20240</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -4178,13 +4184,13 @@
         <v>45623</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4205,13 @@
         <v>97118</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>132</v>
@@ -4214,13 +4220,13 @@
         <v>90335</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>262</v>
@@ -4229,13 +4235,13 @@
         <v>187454</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>209</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4309,13 @@
         <v>47923</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>86</v>
@@ -4318,13 +4324,13 @@
         <v>52244</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>216</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>158</v>
@@ -4333,13 +4339,13 @@
         <v>100167</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>76</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,13 +4360,13 @@
         <v>175702</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H11" s="7">
         <v>247</v>
@@ -4369,13 +4375,13 @@
         <v>154307</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M11" s="7">
         <v>506</v>
@@ -4384,13 +4390,13 @@
         <v>330009</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>85</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,13 +4464,13 @@
         <v>30391</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="H13" s="7">
         <v>52</v>
@@ -4473,13 +4479,13 @@
         <v>30574</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>100</v>
@@ -4488,13 +4494,13 @@
         <v>60965</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,10 +4515,10 @@
         <v>135110</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>291</v>
@@ -4634,7 +4640,7 @@
         <v>302</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>54</v>
       </c>
       <c r="M16" s="7">
         <v>104</v>
@@ -4643,7 +4649,7 @@
         <v>74201</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>52</v>
+        <v>303</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>304</v>
@@ -4682,10 +4688,10 @@
         <v>309</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M17" s="7">
         <v>464</v>
@@ -4694,7 +4700,7 @@
         <v>336874</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
+        <v>311</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>312</v>
@@ -4789,7 +4795,7 @@
         <v>318</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>319</v>
+        <v>89</v>
       </c>
       <c r="M19" s="7">
         <v>437</v>
@@ -4798,10 +4804,10 @@
         <v>290005</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>321</v>
@@ -4837,10 +4843,10 @@
         <v>325</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M20" s="7">
         <v>1681</v>
@@ -4849,13 +4855,13 @@
         <v>1153922</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,7 +4917,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4932,7 +4938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F8E064-64F5-450F-A58F-999C628C6CD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57AF009-24DA-482E-97AC-B4E9E6A3C7EC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5217,7 +5223,7 @@
         <v>350</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>76</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -5226,13 +5232,13 @@
         <v>12337</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -5241,13 +5247,13 @@
         <v>28221</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,13 +5268,13 @@
         <v>98711</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H8" s="7">
         <v>147</v>
@@ -5277,13 +5283,13 @@
         <v>91558</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M8" s="7">
         <v>272</v>
@@ -5292,13 +5298,13 @@
         <v>190269</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,13 +5372,13 @@
         <v>48618</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -5381,13 +5387,13 @@
         <v>29095</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M10" s="7">
         <v>120</v>
@@ -5396,13 +5402,13 @@
         <v>77713</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5423,13 @@
         <v>201568</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H11" s="7">
         <v>234</v>
@@ -5432,13 +5438,13 @@
         <v>163257</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M11" s="7">
         <v>503</v>
@@ -5447,7 +5453,7 @@
         <v>364825</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>381</v>
@@ -5542,7 +5548,7 @@
         <v>387</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>95</v>
+        <v>388</v>
       </c>
       <c r="M13" s="7">
         <v>77</v>
@@ -5551,13 +5557,13 @@
         <v>55173</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,13 +5578,13 @@
         <v>143356</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H14" s="7">
         <v>189</v>
@@ -5587,13 +5593,13 @@
         <v>142581</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>104</v>
+        <v>396</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="M14" s="7">
         <v>374</v>
@@ -5602,13 +5608,13 @@
         <v>285937</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>399</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,13 +5682,13 @@
         <v>27401</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>270</v>
+        <v>403</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -5691,13 +5697,13 @@
         <v>28607</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M16" s="7">
         <v>83</v>
@@ -5706,13 +5712,13 @@
         <v>56008</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>404</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5733,13 @@
         <v>147615</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>279</v>
+        <v>409</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H17" s="7">
         <v>198</v>
@@ -5742,13 +5748,13 @@
         <v>143336</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>407</v>
+        <v>363</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="M17" s="7">
         <v>395</v>
@@ -5757,13 +5763,13 @@
         <v>290950</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>411</v>
+        <v>292</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +5837,13 @@
         <v>126426</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H19" s="7">
         <v>153</v>
@@ -5846,13 +5852,13 @@
         <v>99923</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M19" s="7">
         <v>341</v>
@@ -5861,13 +5867,13 @@
         <v>226348</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,13 +5888,13 @@
         <v>599278</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H20" s="7">
         <v>789</v>
@@ -5897,13 +5903,13 @@
         <v>552956</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="M20" s="7">
         <v>1578</v>
@@ -5912,13 +5918,13 @@
         <v>1152235</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5974,7 +5980,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP17-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP17-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53135AED-D729-484F-B491-98A4412620A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{137D662E-70AE-44C8-AAFC-F1B199FC1BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A988991D-70FD-439F-B8AD-66F5FA48DFA5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FE7F3CEF-023D-42B0-974D-8765FD54817A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="360">
   <si>
     <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1276 +68,1057 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
     <t>22,51%</t>
   </si>
   <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2016 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
     <t>18,44%</t>
   </si>
   <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
   </si>
   <si>
     <t>81,56%</t>
   </si>
   <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
+    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
   </si>
   <si>
     <t>19,69%</t>
   </si>
   <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
   </si>
   <si>
     <t>80,31%</t>
   </si>
   <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2016 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
   </si>
   <si>
     <t>15,08%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
   </si>
   <si>
     <t>84,92%</t>
   </si>
   <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
   </si>
   <si>
     <t>84,91%</t>
   </si>
   <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
   </si>
 </sst>
 </file>
@@ -1749,8 +1530,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D93CD31-A3A3-4FCA-8A0F-036CE5BAACBF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF31F5A-C4A0-4A73-AAFB-5709269276A2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1867,10 +1648,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7">
-        <v>4924</v>
+        <v>28082</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1882,10 +1663,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="I4" s="7">
-        <v>6476</v>
+        <v>32127</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1897,10 +1678,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="N4" s="7">
-        <v>11400</v>
+        <v>60209</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1918,10 +1699,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="D5" s="7">
-        <v>20520</v>
+        <v>110644</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1933,10 +1714,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="I5" s="7">
-        <v>16248</v>
+        <v>120950</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1948,10 +1729,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>48</v>
+        <v>342</v>
       </c>
       <c r="N5" s="7">
-        <v>36768</v>
+        <v>231594</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1969,10 +1750,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D6" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1984,10 +1765,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I6" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1999,10 +1780,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="N6" s="7">
-        <v>48168</v>
+        <v>291803</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2022,10 +1803,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="D7" s="7">
-        <v>27203</v>
+        <v>44763</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2037,10 +1818,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="I7" s="7">
-        <v>21605</v>
+        <v>47746</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2052,10 +1833,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="N7" s="7">
-        <v>48808</v>
+        <v>92509</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2073,10 +1854,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>152</v>
+        <v>239</v>
       </c>
       <c r="D8" s="7">
-        <v>100430</v>
+        <v>150400</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2088,10 +1869,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>142</v>
+        <v>250</v>
       </c>
       <c r="I8" s="7">
-        <v>94397</v>
+        <v>164396</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2103,10 +1884,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>294</v>
+        <v>489</v>
       </c>
       <c r="N8" s="7">
-        <v>194827</v>
+        <v>314796</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2124,10 +1905,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D9" s="7">
-        <v>127633</v>
+        <v>195163</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2139,10 +1920,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I9" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2154,10 +1935,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>367</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>243635</v>
+        <v>407305</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2177,10 +1958,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="D10" s="7">
-        <v>47746</v>
+        <v>23496</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2192,10 +1973,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="I10" s="7">
-        <v>44763</v>
+        <v>34003</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2207,10 +1988,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N10" s="7">
-        <v>92509</v>
+        <v>57499</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2228,10 +2009,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="D11" s="7">
-        <v>164396</v>
+        <v>114321</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2243,10 +2024,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>239</v>
+        <v>180</v>
       </c>
       <c r="I11" s="7">
-        <v>150400</v>
+        <v>115654</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2258,10 +2039,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>489</v>
+        <v>370</v>
       </c>
       <c r="N11" s="7">
-        <v>314796</v>
+        <v>229975</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2279,10 +2060,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2294,10 +2075,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I12" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2309,10 +2090,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>461</v>
       </c>
       <c r="N12" s="7">
-        <v>407305</v>
+        <v>287474</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2332,10 +2113,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D13" s="7">
-        <v>34003</v>
+        <v>37247</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2347,10 +2128,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="I13" s="7">
-        <v>23496</v>
+        <v>47960</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2362,10 +2143,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="N13" s="7">
-        <v>57499</v>
+        <v>85207</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2383,10 +2164,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="D14" s="7">
-        <v>115654</v>
+        <v>172068</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2398,10 +2179,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="I14" s="7">
-        <v>114321</v>
+        <v>159864</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2413,10 +2194,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>370</v>
+        <v>460</v>
       </c>
       <c r="N14" s="7">
-        <v>229975</v>
+        <v>331932</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2434,10 +2215,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D15" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2449,10 +2230,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I15" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2464,10 +2245,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N15" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2481,55 +2262,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="D16" s="7">
-        <v>47960</v>
+        <v>133587</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>242</v>
+      </c>
+      <c r="I16" s="7">
+        <v>161836</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>49</v>
-      </c>
-      <c r="I16" s="7">
-        <v>37247</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>443</v>
+      </c>
+      <c r="N16" s="7">
+        <v>295424</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>120</v>
-      </c>
-      <c r="N16" s="7">
-        <v>85207</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,49 +2319,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>235</v>
+        <v>817</v>
       </c>
       <c r="D17" s="7">
-        <v>159864</v>
+        <v>547434</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>844</v>
+      </c>
+      <c r="I17" s="7">
+        <v>560864</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>225</v>
-      </c>
-      <c r="I17" s="7">
-        <v>172068</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1661</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1108297</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>460</v>
-      </c>
-      <c r="N17" s="7">
-        <v>331932</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,10 +2370,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>306</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207824</v>
+        <v>681021</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2604,10 +2385,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>274</v>
+        <v>1086</v>
       </c>
       <c r="I18" s="7">
-        <v>209315</v>
+        <v>722700</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2619,10 +2400,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>580</v>
+        <v>2104</v>
       </c>
       <c r="N18" s="7">
-        <v>417139</v>
+        <v>1403721</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2635,171 +2416,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>242</v>
-      </c>
-      <c r="D19" s="7">
-        <v>161836</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>201</v>
-      </c>
-      <c r="I19" s="7">
-        <v>133587</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>443</v>
-      </c>
-      <c r="N19" s="7">
-        <v>295424</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>844</v>
-      </c>
-      <c r="D20" s="7">
-        <v>560864</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>817</v>
-      </c>
-      <c r="I20" s="7">
-        <v>547434</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1661</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1108297</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D21" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2812,8 +2437,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93AC588A-5A03-4994-9D23-9CDE1E99744B}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E907E1BB-94B1-46CC-96A4-94A7B7A6ACEE}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2829,7 +2454,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2930,49 +2555,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7">
-        <v>737</v>
+        <v>32299</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="I4" s="7">
-        <v>4922</v>
+        <v>32413</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="N4" s="7">
-        <v>5659</v>
+        <v>64712</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,49 +2606,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="D5" s="7">
-        <v>23717</v>
+        <v>107058</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="I5" s="7">
-        <v>17451</v>
+        <v>121270</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>46</v>
+        <v>310</v>
       </c>
       <c r="N5" s="7">
-        <v>41168</v>
+        <v>228328</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,10 +2657,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>27</v>
+        <v>189</v>
       </c>
       <c r="D6" s="7">
-        <v>24454</v>
+        <v>139357</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3047,10 +2672,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>210</v>
       </c>
       <c r="I6" s="7">
-        <v>22373</v>
+        <v>153683</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3062,10 +2687,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>53</v>
+        <v>399</v>
       </c>
       <c r="N6" s="7">
-        <v>46827</v>
+        <v>293040</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3085,49 +2710,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D7" s="7">
-        <v>31676</v>
+        <v>46851</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="H7" s="7">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="I7" s="7">
-        <v>27378</v>
+        <v>52445</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M7" s="7">
         <v>146</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M7" s="7">
-        <v>82</v>
-      </c>
       <c r="N7" s="7">
-        <v>59054</v>
+        <v>99296</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,49 +2761,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>246</v>
+      </c>
+      <c r="D8" s="7">
+        <v>158832</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="7">
+        <v>249</v>
+      </c>
+      <c r="I8" s="7">
+        <v>170717</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M8" s="7">
+        <v>495</v>
+      </c>
+      <c r="N8" s="7">
+        <v>329549</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="D8" s="7">
-        <v>97553</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H8" s="7">
-        <v>125</v>
-      </c>
-      <c r="I8" s="7">
-        <v>89606</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="M8" s="7">
-        <v>264</v>
-      </c>
-      <c r="N8" s="7">
-        <v>187159</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,10 +2812,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>183</v>
+        <v>318</v>
       </c>
       <c r="D9" s="7">
-        <v>129229</v>
+        <v>205683</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3202,10 +2827,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>323</v>
       </c>
       <c r="I9" s="7">
-        <v>116984</v>
+        <v>223162</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3217,10 +2842,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>346</v>
+        <v>641</v>
       </c>
       <c r="N9" s="7">
-        <v>246213</v>
+        <v>428845</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3240,49 +2865,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D10" s="7">
-        <v>52445</v>
+        <v>32786</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I10" s="7">
-        <v>46851</v>
+        <v>42609</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
+        <v>116</v>
+      </c>
+      <c r="N10" s="7">
+        <v>75395</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="N10" s="7">
-        <v>99296</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,49 +2916,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>249</v>
+        <v>191</v>
       </c>
       <c r="D11" s="7">
-        <v>170717</v>
+        <v>122590</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="I11" s="7">
-        <v>158832</v>
+        <v>123358</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>495</v>
+        <v>381</v>
       </c>
       <c r="N11" s="7">
-        <v>329549</v>
+        <v>245948</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,10 +2967,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D12" s="7">
-        <v>223162</v>
+        <v>155376</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3357,10 +2982,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>318</v>
+        <v>255</v>
       </c>
       <c r="I12" s="7">
-        <v>205683</v>
+        <v>165967</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3372,10 +2997,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>641</v>
+        <v>497</v>
       </c>
       <c r="N12" s="7">
-        <v>428845</v>
+        <v>321343</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3395,49 +3020,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D13" s="7">
-        <v>42609</v>
+        <v>51209</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="I13" s="7">
-        <v>32786</v>
+        <v>43114</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="N13" s="7">
-        <v>75395</v>
+        <v>94323</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,49 +3071,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="D14" s="7">
-        <v>123358</v>
+        <v>158328</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="I14" s="7">
-        <v>122590</v>
+        <v>165282</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="N14" s="7">
-        <v>245948</v>
+        <v>323610</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,10 +3122,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="D15" s="7">
-        <v>165967</v>
+        <v>209537</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3512,10 +3137,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="I15" s="7">
-        <v>155376</v>
+        <v>208396</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3527,10 +3152,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>497</v>
+        <v>557</v>
       </c>
       <c r="N15" s="7">
-        <v>321343</v>
+        <v>417933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3544,55 +3169,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>61</v>
+        <v>235</v>
       </c>
       <c r="D16" s="7">
-        <v>43114</v>
+        <v>163145</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
-        <v>68</v>
+        <v>245</v>
       </c>
       <c r="I16" s="7">
-        <v>51209</v>
+        <v>170581</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>38</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="M16" s="7">
-        <v>129</v>
+        <v>480</v>
       </c>
       <c r="N16" s="7">
-        <v>94323</v>
+        <v>333726</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,49 +3226,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>222</v>
+        <v>788</v>
       </c>
       <c r="D17" s="7">
-        <v>165282</v>
+        <v>546808</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="H17" s="7">
-        <v>206</v>
+        <v>826</v>
       </c>
       <c r="I17" s="7">
-        <v>158328</v>
+        <v>580628</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>47</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="M17" s="7">
-        <v>428</v>
+        <v>1614</v>
       </c>
       <c r="N17" s="7">
-        <v>323610</v>
+        <v>1127436</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,10 +3277,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>283</v>
+        <v>1023</v>
       </c>
       <c r="D18" s="7">
-        <v>208396</v>
+        <v>709953</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3667,10 +3292,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>274</v>
+        <v>1071</v>
       </c>
       <c r="I18" s="7">
-        <v>209537</v>
+        <v>751209</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3682,10 +3307,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>557</v>
+        <v>2094</v>
       </c>
       <c r="N18" s="7">
-        <v>417933</v>
+        <v>1461162</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3698,171 +3323,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>245</v>
-      </c>
-      <c r="D19" s="7">
-        <v>170581</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H19" s="7">
-        <v>235</v>
-      </c>
-      <c r="I19" s="7">
-        <v>163145</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M19" s="7">
-        <v>480</v>
-      </c>
-      <c r="N19" s="7">
-        <v>333726</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>826</v>
-      </c>
-      <c r="D20" s="7">
-        <v>580628</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H20" s="7">
-        <v>788</v>
-      </c>
-      <c r="I20" s="7">
-        <v>546808</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1614</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1127436</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1071</v>
-      </c>
-      <c r="D21" s="7">
-        <v>751209</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1023</v>
-      </c>
-      <c r="I21" s="7">
-        <v>709953</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2094</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1461162</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3875,8 +3344,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A6CFB9-BB73-49FF-90CD-11D79881BAC6}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334FBA4D-50E9-46CE-AEA5-9AED84246362}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3892,7 +3361,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3993,49 +3462,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D4" s="7">
-        <v>5361</v>
+        <v>23928</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="I4" s="7">
-        <v>3688</v>
+        <v>30745</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="N4" s="7">
-        <v>9049</v>
+        <v>54673</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,49 +3513,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="D5" s="7">
-        <v>20213</v>
+        <v>109174</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="H5" s="7">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="I5" s="7">
-        <v>18839</v>
+        <v>117331</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="M5" s="7">
-        <v>44</v>
+        <v>306</v>
       </c>
       <c r="N5" s="7">
-        <v>39052</v>
+        <v>226505</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,10 +3564,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>133102</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4110,10 +3579,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4125,10 +3594,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>381</v>
       </c>
       <c r="N6" s="7">
-        <v>48101</v>
+        <v>281178</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4148,49 +3617,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="D7" s="7">
-        <v>25384</v>
+        <v>52244</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="H7" s="7">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="I7" s="7">
-        <v>20240</v>
+        <v>47923</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="M7" s="7">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="N7" s="7">
-        <v>45623</v>
+        <v>100167</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,49 +3668,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>130</v>
+        <v>247</v>
       </c>
       <c r="D8" s="7">
-        <v>97118</v>
+        <v>154307</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="H8" s="7">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="I8" s="7">
-        <v>90335</v>
+        <v>175702</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="M8" s="7">
-        <v>262</v>
+        <v>506</v>
       </c>
       <c r="N8" s="7">
-        <v>187454</v>
+        <v>330009</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,10 +3719,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>165</v>
+        <v>333</v>
       </c>
       <c r="D9" s="7">
-        <v>122502</v>
+        <v>206551</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4265,10 +3734,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>331</v>
       </c>
       <c r="I9" s="7">
-        <v>110575</v>
+        <v>223625</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4280,10 +3749,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>327</v>
+        <v>664</v>
       </c>
       <c r="N9" s="7">
-        <v>233077</v>
+        <v>430176</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4303,49 +3772,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D10" s="7">
-        <v>47923</v>
+        <v>30574</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="H10" s="7">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="I10" s="7">
-        <v>52244</v>
+        <v>30391</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="N10" s="7">
-        <v>100167</v>
+        <v>60965</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,49 +3823,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>259</v>
+        <v>207</v>
       </c>
       <c r="D11" s="7">
-        <v>175702</v>
+        <v>125423</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H11" s="7">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="I11" s="7">
-        <v>154307</v>
+        <v>135110</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
-        <v>506</v>
+        <v>405</v>
       </c>
       <c r="N11" s="7">
-        <v>330009</v>
+        <v>260533</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,10 +3874,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>331</v>
+        <v>259</v>
       </c>
       <c r="D12" s="7">
-        <v>223625</v>
+        <v>155997</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4420,10 +3889,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>333</v>
+        <v>246</v>
       </c>
       <c r="I12" s="7">
-        <v>206551</v>
+        <v>165501</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4435,10 +3904,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>664</v>
+        <v>505</v>
       </c>
       <c r="N12" s="7">
-        <v>430176</v>
+        <v>321498</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4458,49 +3927,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D13" s="7">
-        <v>30391</v>
+        <v>37141</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="H13" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I13" s="7">
-        <v>30574</v>
+        <v>37060</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="M13" s="7">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="N13" s="7">
-        <v>60965</v>
+        <v>74201</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,49 +3978,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="D14" s="7">
-        <v>135110</v>
+        <v>170279</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="H14" s="7">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="I14" s="7">
-        <v>125423</v>
+        <v>166595</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="M14" s="7">
-        <v>405</v>
+        <v>464</v>
       </c>
       <c r="N14" s="7">
-        <v>260533</v>
+        <v>336874</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,10 +4029,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="D15" s="7">
-        <v>165501</v>
+        <v>207420</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4575,10 +4044,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="I15" s="7">
-        <v>155997</v>
+        <v>203655</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4590,10 +4059,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>505</v>
+        <v>568</v>
       </c>
       <c r="N15" s="7">
-        <v>321498</v>
+        <v>411075</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4607,55 +4076,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>53</v>
+        <v>223</v>
       </c>
       <c r="D16" s="7">
-        <v>37060</v>
+        <v>143886</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>176</v>
       </c>
       <c r="H16" s="7">
-        <v>51</v>
+        <v>214</v>
       </c>
       <c r="I16" s="7">
-        <v>37141</v>
+        <v>146119</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>302</v>
+        <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
-        <v>104</v>
+        <v>437</v>
       </c>
       <c r="N16" s="7">
-        <v>74201</v>
+        <v>290005</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,49 +4133,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>234</v>
+        <v>836</v>
       </c>
       <c r="D17" s="7">
-        <v>166595</v>
+        <v>559184</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>307</v>
+        <v>182</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H17" s="7">
-        <v>230</v>
+        <v>845</v>
       </c>
       <c r="I17" s="7">
-        <v>170279</v>
+        <v>594738</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>29</v>
       </c>
       <c r="M17" s="7">
-        <v>464</v>
+        <v>1681</v>
       </c>
       <c r="N17" s="7">
-        <v>336874</v>
+        <v>1153922</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,10 +4184,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>287</v>
+        <v>1059</v>
       </c>
       <c r="D18" s="7">
-        <v>203655</v>
+        <v>703070</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4730,10 +4199,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>281</v>
+        <v>1059</v>
       </c>
       <c r="I18" s="7">
-        <v>207420</v>
+        <v>740857</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4745,10 +4214,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>568</v>
+        <v>2118</v>
       </c>
       <c r="N18" s="7">
-        <v>411075</v>
+        <v>1443927</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4761,171 +4230,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>214</v>
-      </c>
-      <c r="D19" s="7">
-        <v>146119</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H19" s="7">
-        <v>223</v>
-      </c>
-      <c r="I19" s="7">
-        <v>143886</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M19" s="7">
-        <v>437</v>
-      </c>
-      <c r="N19" s="7">
-        <v>290005</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>845</v>
-      </c>
-      <c r="D20" s="7">
-        <v>594738</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H20" s="7">
-        <v>836</v>
-      </c>
-      <c r="I20" s="7">
-        <v>559184</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1681</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1153922</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1059</v>
-      </c>
-      <c r="D21" s="7">
-        <v>740857</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1059</v>
-      </c>
-      <c r="I21" s="7">
-        <v>703070</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2118</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1443927</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4938,8 +4251,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57AF009-24DA-482E-97AC-B4E9E6A3C7EC}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4AFABB-FAF3-4E38-A5FB-D355E088A80B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4955,7 +4268,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5056,49 +4369,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>4670</v>
+        <v>17054</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I4" s="7">
-        <v>4563</v>
+        <v>21666</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>336</v>
+        <v>279</v>
       </c>
       <c r="M4" s="7">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="N4" s="7">
-        <v>9233</v>
+        <v>38720</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>338</v>
+        <v>281</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,49 +4420,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="D5" s="7">
-        <v>8028</v>
+        <v>100226</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="H5" s="7">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="I5" s="7">
-        <v>12224</v>
+        <v>118746</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="M5" s="7">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="N5" s="7">
-        <v>20252</v>
+        <v>218973</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,10 +4471,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D6" s="7">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5173,10 +4486,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="I6" s="7">
-        <v>16787</v>
+        <v>140412</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5188,10 +4501,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="N6" s="7">
-        <v>29485</v>
+        <v>257693</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5211,49 +4524,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D7" s="7">
-        <v>15885</v>
+        <v>28975</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="H7" s="7">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I7" s="7">
-        <v>12337</v>
+        <v>49736</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>351</v>
+        <v>295</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>352</v>
+        <v>296</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>353</v>
+        <v>297</v>
       </c>
       <c r="M7" s="7">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="N7" s="7">
-        <v>28221</v>
+        <v>78711</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>354</v>
+        <v>298</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>355</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>356</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,49 +4575,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="D8" s="7">
-        <v>98711</v>
+        <v>161537</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>357</v>
+        <v>300</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>85</v>
+        <v>301</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>358</v>
+        <v>302</v>
       </c>
       <c r="H8" s="7">
-        <v>147</v>
+        <v>269</v>
       </c>
       <c r="I8" s="7">
-        <v>91558</v>
+        <v>205299</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>359</v>
+        <v>303</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>361</v>
+        <v>305</v>
       </c>
       <c r="M8" s="7">
-        <v>272</v>
+        <v>503</v>
       </c>
       <c r="N8" s="7">
-        <v>190269</v>
+        <v>366837</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>362</v>
+        <v>306</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>363</v>
+        <v>307</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>364</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,10 +4626,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="D9" s="7">
-        <v>114596</v>
+        <v>190512</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5328,10 +4641,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>168</v>
+        <v>343</v>
       </c>
       <c r="I9" s="7">
-        <v>103895</v>
+        <v>255035</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5343,10 +4656,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>320</v>
+        <v>623</v>
       </c>
       <c r="N9" s="7">
-        <v>218490</v>
+        <v>445548</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5366,49 +4679,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="D10" s="7">
-        <v>48618</v>
+        <v>26236</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>366</v>
+        <v>309</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>367</v>
+        <v>310</v>
       </c>
       <c r="H10" s="7">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I10" s="7">
-        <v>29095</v>
+        <v>31680</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>368</v>
+        <v>311</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>369</v>
+        <v>312</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
       <c r="M10" s="7">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="N10" s="7">
-        <v>77713</v>
+        <v>57917</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>373</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,49 +4730,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>269</v>
+        <v>189</v>
       </c>
       <c r="D11" s="7">
-        <v>201568</v>
+        <v>163349</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H11" s="7">
+        <v>185</v>
+      </c>
+      <c r="I11" s="7">
+        <v>153606</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="M11" s="7">
         <v>374</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="H11" s="7">
-        <v>234</v>
-      </c>
-      <c r="I11" s="7">
-        <v>163257</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="M11" s="7">
-        <v>503</v>
-      </c>
       <c r="N11" s="7">
-        <v>364825</v>
+        <v>316954</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>380</v>
+        <v>323</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>381</v>
+        <v>324</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,10 +4781,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>343</v>
+        <v>226</v>
       </c>
       <c r="D12" s="7">
-        <v>250186</v>
+        <v>189585</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5483,10 +4796,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="I12" s="7">
-        <v>192352</v>
+        <v>185286</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5498,10 +4811,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>623</v>
+        <v>451</v>
       </c>
       <c r="N12" s="7">
-        <v>442538</v>
+        <v>374871</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5521,49 +4834,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D13" s="7">
-        <v>29852</v>
+        <v>28049</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>383</v>
+        <v>326</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="H13" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I13" s="7">
-        <v>25321</v>
+        <v>28510</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>386</v>
+        <v>329</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>387</v>
+        <v>330</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>388</v>
+        <v>331</v>
       </c>
       <c r="M13" s="7">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="N13" s="7">
-        <v>55173</v>
+        <v>56559</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>389</v>
+        <v>332</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>390</v>
+        <v>333</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>391</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,49 +4885,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D14" s="7">
-        <v>143356</v>
+        <v>139913</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>392</v>
+        <v>335</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>393</v>
+        <v>336</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="H14" s="7">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="I14" s="7">
-        <v>142581</v>
+        <v>152728</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="M14" s="7">
         <v>395</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="M14" s="7">
-        <v>374</v>
-      </c>
       <c r="N14" s="7">
-        <v>285937</v>
+        <v>292642</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,10 +4936,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D15" s="7">
-        <v>173208</v>
+        <v>167962</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5638,10 +4951,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="I15" s="7">
-        <v>167902</v>
+        <v>181238</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5653,10 +4966,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="N15" s="7">
-        <v>341110</v>
+        <v>349201</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5670,55 +4983,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="D16" s="7">
-        <v>27401</v>
+        <v>100314</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="H16" s="7">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="I16" s="7">
-        <v>28607</v>
+        <v>131592</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>356</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="M16" s="7">
-        <v>83</v>
+        <v>341</v>
       </c>
       <c r="N16" s="7">
-        <v>56008</v>
+        <v>231906</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>283</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,49 +5040,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>197</v>
+        <v>789</v>
       </c>
       <c r="D17" s="7">
-        <v>147615</v>
+        <v>565026</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>408</v>
+        <v>352</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>409</v>
+        <v>353</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>410</v>
+        <v>354</v>
       </c>
       <c r="H17" s="7">
-        <v>198</v>
+        <v>789</v>
       </c>
       <c r="I17" s="7">
-        <v>143336</v>
+        <v>630380</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>363</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>411</v>
+        <v>355</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>412</v>
+        <v>356</v>
       </c>
       <c r="M17" s="7">
-        <v>395</v>
+        <v>1578</v>
       </c>
       <c r="N17" s="7">
-        <v>290950</v>
+        <v>1195406</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>413</v>
+        <v>357</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>292</v>
+        <v>358</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>414</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,10 +5091,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>238</v>
+        <v>942</v>
       </c>
       <c r="D18" s="7">
-        <v>175016</v>
+        <v>665340</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5793,10 +5106,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>240</v>
+        <v>977</v>
       </c>
       <c r="I18" s="7">
-        <v>171943</v>
+        <v>761972</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5808,10 +5121,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>478</v>
+        <v>1919</v>
       </c>
       <c r="N18" s="7">
-        <v>346958</v>
+        <v>1427312</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5824,171 +5137,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>188</v>
-      </c>
-      <c r="D19" s="7">
-        <v>126426</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="H19" s="7">
-        <v>153</v>
-      </c>
-      <c r="I19" s="7">
-        <v>99923</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="M19" s="7">
-        <v>341</v>
-      </c>
-      <c r="N19" s="7">
-        <v>226348</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>789</v>
-      </c>
-      <c r="D20" s="7">
-        <v>599278</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="H20" s="7">
-        <v>789</v>
-      </c>
-      <c r="I20" s="7">
-        <v>552956</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1578</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1152235</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>977</v>
-      </c>
-      <c r="D21" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>942</v>
-      </c>
-      <c r="I21" s="7">
-        <v>652879</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1919</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1378583</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
